--- a/BaseFuncionarios.xlsx
+++ b/BaseFuncionarios.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27932"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rober\OneDrive\Área de Trabalho\Aula Cap 16 - Estatística\Exemplos de Excel\2. RH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\suporte\Documents\Code Academy\Aula-Code-Dashboards\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37AC78DF-2FC6-4381-8F75-EFDE1E16647A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AA59D05-E8EC-4CE4-83B8-FDA07B9654B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -2273,24 +2273,24 @@
       <selection pane="topRight" activeCell="AE2" sqref="AE2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.33203125" customWidth="1"/>
-    <col min="3" max="3" width="13.21875" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="20.77734375" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="3.33203125" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="73.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.77734375" customWidth="1"/>
-    <col min="8" max="8" width="13.77734375" customWidth="1"/>
-    <col min="9" max="9" width="11.21875" customWidth="1"/>
-    <col min="10" max="10" width="12.44140625" customWidth="1"/>
-    <col min="14" max="14" width="19.5546875" customWidth="1"/>
-    <col min="15" max="15" width="13.77734375" customWidth="1"/>
-    <col min="16" max="16" width="24.44140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="20.5546875" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="3.28515625" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="73.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.7109375" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" customWidth="1"/>
+    <col min="14" max="14" width="19.5703125" customWidth="1"/>
+    <col min="15" max="15" width="13.7109375" customWidth="1"/>
+    <col min="16" max="16" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="20.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2367,7 +2367,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>460</v>
       </c>
@@ -2442,7 +2442,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>5</v>
       </c>
@@ -2517,7 +2517,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>195</v>
       </c>
@@ -2592,7 +2592,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>102</v>
       </c>
@@ -2667,7 +2667,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>133</v>
       </c>
@@ -2742,7 +2742,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>92</v>
       </c>
@@ -2817,7 +2817,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>167</v>
       </c>
@@ -2892,7 +2892,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>342</v>
       </c>
@@ -2967,7 +2967,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>320</v>
       </c>
@@ -3042,7 +3042,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>88</v>
       </c>
@@ -3117,7 +3117,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>113</v>
       </c>
@@ -3192,7 +3192,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>291</v>
       </c>
@@ -3267,7 +3267,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>95</v>
       </c>
@@ -3342,7 +3342,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>425</v>
       </c>
@@ -3417,7 +3417,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>3</v>
       </c>
@@ -3492,7 +3492,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>217</v>
       </c>
@@ -3567,7 +3567,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>158</v>
       </c>
@@ -3642,7 +3642,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>240</v>
       </c>
@@ -3714,7 +3714,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>435</v>
       </c>
@@ -3788,7 +3788,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>405</v>
       </c>
@@ -3860,7 +3860,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>209</v>
       </c>
@@ -3932,7 +3932,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>334</v>
       </c>
@@ -4004,7 +4004,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>448</v>
       </c>
@@ -4076,7 +4076,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>354</v>
       </c>
@@ -4148,7 +4148,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>375</v>
       </c>
@@ -4220,7 +4220,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>237</v>
       </c>
@@ -4292,7 +4292,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>363</v>
       </c>
@@ -4364,7 +4364,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>10</v>
       </c>
@@ -4436,7 +4436,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>469</v>
       </c>
@@ -4508,7 +4508,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>147</v>
       </c>
@@ -4582,7 +4582,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>11</v>
       </c>
@@ -4654,7 +4654,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>287</v>
       </c>
@@ -4726,7 +4726,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>286</v>
       </c>
@@ -4798,7 +4798,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>151</v>
       </c>
@@ -4870,7 +4870,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>145</v>
       </c>
@@ -4942,7 +4942,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>537</v>
       </c>
@@ -5014,7 +5014,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>271</v>
       </c>
@@ -5086,7 +5086,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>457</v>
       </c>
@@ -5158,7 +5158,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>371</v>
       </c>
@@ -5230,7 +5230,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>316</v>
       </c>
@@ -5304,7 +5304,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>218</v>
       </c>
@@ -5376,7 +5376,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>74</v>
       </c>
@@ -5448,7 +5448,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>6</v>
       </c>
@@ -5520,7 +5520,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>343</v>
       </c>
@@ -5592,7 +5592,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>499</v>
       </c>
@@ -5664,7 +5664,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>370</v>
       </c>
@@ -5736,7 +5736,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>23</v>
       </c>
@@ -5808,7 +5808,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>455</v>
       </c>
@@ -5880,7 +5880,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>486</v>
       </c>
@@ -5952,7 +5952,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>288</v>
       </c>
@@ -6024,7 +6024,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>42</v>
       </c>
@@ -6098,7 +6098,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>516</v>
       </c>
@@ -6172,7 +6172,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>192</v>
       </c>
@@ -6244,7 +6244,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>535</v>
       </c>
@@ -6316,7 +6316,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>374</v>
       </c>
@@ -6388,7 +6388,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>307</v>
       </c>
@@ -6460,7 +6460,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>533</v>
       </c>
@@ -6532,7 +6532,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>523</v>
       </c>
@@ -6604,7 +6604,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>396</v>
       </c>
@@ -6676,7 +6676,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>506</v>
       </c>
@@ -6748,7 +6748,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>98</v>
       </c>
@@ -6820,7 +6820,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>168</v>
       </c>
@@ -6892,7 +6892,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>527</v>
       </c>
@@ -6967,7 +6967,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>475</v>
       </c>
@@ -7039,7 +7039,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="66" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>109</v>
       </c>
@@ -7111,7 +7111,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="67" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>164</v>
       </c>
@@ -7185,7 +7185,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="68" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>258</v>
       </c>
@@ -7257,7 +7257,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="69" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>290</v>
       </c>
@@ -7329,7 +7329,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="70" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>321</v>
       </c>
@@ -7401,7 +7401,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="71" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>510</v>
       </c>
@@ -7473,7 +7473,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>472</v>
       </c>
@@ -7547,7 +7547,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="73" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>188</v>
       </c>
@@ -7619,7 +7619,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>90</v>
       </c>
@@ -7691,7 +7691,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="75" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>116</v>
       </c>
@@ -7763,7 +7763,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="76" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>233</v>
       </c>
@@ -7835,7 +7835,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="77" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>77</v>
       </c>
@@ -7907,7 +7907,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="78" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>276</v>
       </c>
@@ -7979,7 +7979,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="79" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>512</v>
       </c>
@@ -8051,7 +8051,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>349</v>
       </c>
@@ -8125,7 +8125,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="81" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>22</v>
       </c>
@@ -8197,7 +8197,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="82" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>273</v>
       </c>
@@ -8269,7 +8269,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="83" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>179</v>
       </c>
@@ -8341,7 +8341,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="84" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>15</v>
       </c>
@@ -8418,7 +8418,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="85" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>148</v>
       </c>
@@ -8490,7 +8490,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="86" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>308</v>
       </c>
@@ -8562,7 +8562,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="87" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>324</v>
       </c>
@@ -8634,7 +8634,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="88" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>412</v>
       </c>
@@ -8708,7 +8708,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="89" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>67</v>
       </c>
@@ -8780,7 +8780,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="90" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>392</v>
       </c>
@@ -8852,7 +8852,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="91" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>154</v>
       </c>
@@ -8927,7 +8927,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="92" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>270</v>
       </c>
@@ -8999,7 +8999,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="93" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>417</v>
       </c>
@@ -9071,7 +9071,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="94" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>500</v>
       </c>
@@ -9145,7 +9145,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="95" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>152</v>
       </c>
@@ -9217,7 +9217,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="96" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>146</v>
       </c>
@@ -9291,7 +9291,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="97" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>337</v>
       </c>
@@ -9363,7 +9363,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="98" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>376</v>
       </c>
@@ -9435,7 +9435,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="99" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>35</v>
       </c>
@@ -9507,7 +9507,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="100" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>124</v>
       </c>
@@ -9579,7 +9579,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="101" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>495</v>
       </c>
@@ -9651,7 +9651,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="102" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>229</v>
       </c>
@@ -9723,7 +9723,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="103" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>27</v>
       </c>
@@ -9795,7 +9795,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="104" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>406</v>
       </c>
@@ -9867,7 +9867,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="105" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>238</v>
       </c>
@@ -9939,7 +9939,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="106" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>134</v>
       </c>
@@ -10013,7 +10013,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="107" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>135</v>
       </c>
@@ -10085,7 +10085,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="108" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>255</v>
       </c>
@@ -10157,7 +10157,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="109" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>29</v>
       </c>
@@ -10229,7 +10229,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="110" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>185</v>
       </c>
@@ -10301,7 +10301,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="111" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>226</v>
       </c>
@@ -10373,7 +10373,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="112" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>358</v>
       </c>
@@ -10445,7 +10445,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="113" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>400</v>
       </c>
@@ -10517,7 +10517,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="114" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>347</v>
       </c>
@@ -10589,7 +10589,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="115" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>174</v>
       </c>
@@ -10664,7 +10664,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="116" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>467</v>
       </c>
@@ -10736,7 +10736,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="117" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>391</v>
       </c>
@@ -10808,7 +10808,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="118" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>474</v>
       </c>
@@ -10880,7 +10880,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="119" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>96</v>
       </c>
@@ -10954,7 +10954,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="120" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>111</v>
       </c>
@@ -11026,7 +11026,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="121" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>529</v>
       </c>
@@ -11098,7 +11098,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="122" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>169</v>
       </c>
@@ -11170,7 +11170,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="123" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>310</v>
       </c>
@@ -11242,7 +11242,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="124" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>125</v>
       </c>
@@ -11314,7 +11314,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="125" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>452</v>
       </c>
@@ -11386,7 +11386,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="126" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>438</v>
       </c>
@@ -11458,7 +11458,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="127" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>504</v>
       </c>
@@ -11535,7 +11535,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="128" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>224</v>
       </c>
@@ -11607,7 +11607,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="129" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>64</v>
       </c>
@@ -11679,7 +11679,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="130" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>212</v>
       </c>
@@ -11751,7 +11751,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="131" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>521</v>
       </c>
@@ -11823,7 +11823,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="132" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>261</v>
       </c>
@@ -11895,7 +11895,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="133" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>176</v>
       </c>
@@ -11967,7 +11967,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="134" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>150</v>
       </c>
@@ -12039,7 +12039,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="135" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>350</v>
       </c>
@@ -12111,7 +12111,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="136" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>207</v>
       </c>
@@ -12186,7 +12186,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="137" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>193</v>
       </c>
@@ -12258,7 +12258,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="138" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>338</v>
       </c>
@@ -12330,7 +12330,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="139" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>160</v>
       </c>
@@ -12402,7 +12402,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="140" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>296</v>
       </c>
@@ -12474,7 +12474,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="141" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>299</v>
       </c>
@@ -12546,7 +12546,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="142" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>223</v>
       </c>
@@ -12618,7 +12618,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="143" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>436</v>
       </c>
@@ -12690,7 +12690,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="144" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>213</v>
       </c>
@@ -12765,7 +12765,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="145" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>384</v>
       </c>
@@ -12839,7 +12839,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="146" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>166</v>
       </c>
@@ -12911,7 +12911,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="147" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>86</v>
       </c>
@@ -12983,7 +12983,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="148" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>244</v>
       </c>
@@ -13055,7 +13055,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="149" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>19</v>
       </c>
@@ -13127,7 +13127,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="150" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>84</v>
       </c>
@@ -13199,7 +13199,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="151" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>408</v>
       </c>
@@ -13271,7 +13271,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="152" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>431</v>
       </c>
@@ -13343,7 +13343,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="153" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>149</v>
       </c>
@@ -13415,7 +13415,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="154" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>68</v>
       </c>
@@ -13487,7 +13487,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="155" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>140</v>
       </c>
@@ -13561,7 +13561,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="156" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>180</v>
       </c>
@@ -13633,7 +13633,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="157" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>60</v>
       </c>
@@ -13705,7 +13705,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="158" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>311</v>
       </c>
@@ -13777,7 +13777,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="159" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>327</v>
       </c>
@@ -13849,7 +13849,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="160" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>292</v>
       </c>
@@ -13921,7 +13921,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="161" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>117</v>
       </c>
@@ -13993,7 +13993,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="162" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>393</v>
       </c>
@@ -14067,7 +14067,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="163" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>520</v>
       </c>
@@ -14139,7 +14139,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="164" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>404</v>
       </c>
@@ -14211,7 +14211,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="165" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>80</v>
       </c>
@@ -14283,7 +14283,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="166" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>78</v>
       </c>
@@ -14355,7 +14355,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="167" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>142</v>
       </c>
@@ -14427,7 +14427,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="168" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>1</v>
       </c>
@@ -14502,7 +14502,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="169" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>313</v>
       </c>
@@ -14576,7 +14576,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="170" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>53</v>
       </c>
@@ -14653,7 +14653,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="171" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>403</v>
       </c>
@@ -14725,7 +14725,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="172" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>210</v>
       </c>
@@ -14797,7 +14797,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="173" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>330</v>
       </c>
@@ -14872,7 +14872,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="174" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>30</v>
       </c>
@@ -14946,7 +14946,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="175" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>294</v>
       </c>
@@ -15018,7 +15018,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="176" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>409</v>
       </c>
@@ -15090,7 +15090,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="177" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>220</v>
       </c>
@@ -15162,7 +15162,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="178" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>447</v>
       </c>
@@ -15234,7 +15234,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="179" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>445</v>
       </c>
@@ -15306,7 +15306,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="180" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>8</v>
       </c>
@@ -15378,7 +15378,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="181" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>40</v>
       </c>
@@ -15452,7 +15452,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="182" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>175</v>
       </c>
@@ -15524,7 +15524,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="183" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>420</v>
       </c>
@@ -15596,7 +15596,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="184" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>81</v>
       </c>
@@ -15668,7 +15668,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="185" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>43</v>
       </c>
@@ -15745,7 +15745,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="186" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>187</v>
       </c>
@@ -15820,7 +15820,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="187" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>446</v>
       </c>
@@ -15892,7 +15892,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="188" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>526</v>
       </c>
@@ -15967,7 +15967,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="189" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>171</v>
       </c>
@@ -16039,7 +16039,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="190" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>4</v>
       </c>
@@ -16111,7 +16111,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="191" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>9</v>
       </c>
@@ -16183,7 +16183,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="192" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>119</v>
       </c>
@@ -16255,7 +16255,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="193" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>159</v>
       </c>
@@ -16327,7 +16327,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="194" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>494</v>
       </c>
@@ -16399,7 +16399,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="195" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>285</v>
       </c>
@@ -16471,7 +16471,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="196" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>110</v>
       </c>
@@ -16543,7 +16543,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="197" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>427</v>
       </c>
@@ -16615,7 +16615,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="198" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>423</v>
       </c>
@@ -16687,7 +16687,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="199" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>282</v>
       </c>
@@ -16759,7 +16759,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="200" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>328</v>
       </c>
@@ -16831,7 +16831,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="201" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>314</v>
       </c>
@@ -16905,7 +16905,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="202" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>355</v>
       </c>
@@ -16977,7 +16977,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="203" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>254</v>
       </c>
@@ -17051,7 +17051,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="204" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>443</v>
       </c>
@@ -17123,7 +17123,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="205" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>120</v>
       </c>
@@ -17197,7 +17197,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="206" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>264</v>
       </c>
@@ -17269,7 +17269,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="207" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>18</v>
       </c>
@@ -17341,7 +17341,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="208" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>203</v>
       </c>
@@ -17413,7 +17413,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="209" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>274</v>
       </c>
@@ -17485,7 +17485,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="210" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>298</v>
       </c>
@@ -17557,7 +17557,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="211" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>127</v>
       </c>
@@ -17629,7 +17629,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="212" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>56</v>
       </c>
@@ -17701,7 +17701,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="213" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>153</v>
       </c>
@@ -17775,7 +17775,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="214" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>183</v>
       </c>
@@ -17847,7 +17847,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="215" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>331</v>
       </c>
@@ -17919,7 +17919,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="216" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>398</v>
       </c>
@@ -17991,7 +17991,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="217" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>315</v>
       </c>
@@ -18063,7 +18063,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="218" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>368</v>
       </c>
@@ -18135,7 +18135,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="219" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>52</v>
       </c>
@@ -18207,7 +18207,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="220" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>26</v>
       </c>
@@ -18279,7 +18279,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="221" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>14</v>
       </c>
@@ -18351,7 +18351,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="222" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>246</v>
       </c>
@@ -18423,7 +18423,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="223" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>132</v>
       </c>
@@ -18495,7 +18495,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="224" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>532</v>
       </c>
@@ -18569,7 +18569,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="225" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>422</v>
       </c>
@@ -18643,7 +18643,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="226" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>383</v>
       </c>
@@ -18715,7 +18715,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="227" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>97</v>
       </c>
@@ -18787,7 +18787,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="228" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>2</v>
       </c>
@@ -18859,7 +18859,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="229" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>182</v>
       </c>
@@ -18931,7 +18931,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="230" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>293</v>
       </c>
@@ -19003,7 +19003,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="231" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>513</v>
       </c>
@@ -19075,7 +19075,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="232" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>63</v>
       </c>
@@ -19147,7 +19147,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="233" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>508</v>
       </c>
@@ -19219,7 +19219,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="234" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>329</v>
       </c>
@@ -19293,7 +19293,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="235" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>65</v>
       </c>
@@ -19365,7 +19365,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="236" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>497</v>
       </c>
@@ -19437,7 +19437,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="237" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>454</v>
       </c>
@@ -19509,7 +19509,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="238" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>352</v>
       </c>
@@ -19581,7 +19581,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="239" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>509</v>
       </c>
@@ -19658,7 +19658,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="240" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>106</v>
       </c>
@@ -19730,7 +19730,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="241" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>449</v>
       </c>
@@ -19802,7 +19802,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="242" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>269</v>
       </c>
@@ -19874,7 +19874,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="243" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>73</v>
       </c>
@@ -19949,7 +19949,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="244" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>389</v>
       </c>
@@ -20023,7 +20023,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="245" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>440</v>
       </c>
@@ -20095,7 +20095,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="246" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>333</v>
       </c>
@@ -20167,7 +20167,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="247" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>251</v>
       </c>
@@ -20239,7 +20239,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="248" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>266</v>
       </c>
@@ -20311,7 +20311,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="249" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>279</v>
       </c>
@@ -20383,7 +20383,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="250" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>471</v>
       </c>
@@ -20455,7 +20455,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="251" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>433</v>
       </c>
@@ -20527,7 +20527,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="252" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>201</v>
       </c>
@@ -20599,7 +20599,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="253" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>536</v>
       </c>
@@ -20671,7 +20671,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="254" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>304</v>
       </c>
@@ -20743,7 +20743,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="255" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>136</v>
       </c>
@@ -20817,7 +20817,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="256" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>243</v>
       </c>
@@ -20889,7 +20889,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="257" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>362</v>
       </c>
@@ -20961,7 +20961,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="258" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>100</v>
       </c>
@@ -21033,7 +21033,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="259" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>249</v>
       </c>
@@ -21105,7 +21105,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="260" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>325</v>
       </c>
@@ -21177,7 +21177,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="261" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>126</v>
       </c>
@@ -21251,7 +21251,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="262" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>481</v>
       </c>
@@ -21323,7 +21323,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="263" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>83</v>
       </c>
@@ -21395,7 +21395,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="264" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>369</v>
       </c>
@@ -21467,7 +21467,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="265" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>69</v>
       </c>
@@ -21542,7 +21542,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="266" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>202</v>
       </c>
@@ -21614,7 +21614,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="267" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>515</v>
       </c>
@@ -21688,7 +21688,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="268" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>190</v>
       </c>
@@ -21760,7 +21760,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="269" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>424</v>
       </c>
@@ -21834,7 +21834,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="270" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>71</v>
       </c>
@@ -21906,7 +21906,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="271" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>41</v>
       </c>
@@ -21980,7 +21980,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="272" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>200</v>
       </c>
@@ -22052,7 +22052,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="273" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>170</v>
       </c>
@@ -22124,7 +22124,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="274" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>25</v>
       </c>
@@ -22199,7 +22199,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="275" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>247</v>
       </c>
@@ -22271,7 +22271,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="276" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>442</v>
       </c>
@@ -22343,7 +22343,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="277" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>351</v>
       </c>
@@ -22415,7 +22415,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="278" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>58</v>
       </c>
@@ -22487,7 +22487,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="279" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>33</v>
       </c>
@@ -22559,7 +22559,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="280" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>91</v>
       </c>
@@ -22631,7 +22631,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="281" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>13</v>
       </c>
@@ -22703,7 +22703,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="282" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>415</v>
       </c>
@@ -22775,7 +22775,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="283" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>470</v>
       </c>
@@ -22847,7 +22847,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="284" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>215</v>
       </c>
@@ -22922,7 +22922,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="285" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>144</v>
       </c>
@@ -22994,7 +22994,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="286" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>76</v>
       </c>
@@ -23066,7 +23066,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="287" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>72</v>
       </c>
@@ -23138,7 +23138,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="288" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>390</v>
       </c>
@@ -23210,7 +23210,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="289" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>228</v>
       </c>
@@ -23282,7 +23282,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="290" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>118</v>
       </c>
@@ -23354,7 +23354,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="291" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>128</v>
       </c>
@@ -23428,7 +23428,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="292" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>462</v>
       </c>
@@ -23500,7 +23500,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="293" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>260</v>
       </c>
@@ -23572,7 +23572,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="294" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>360</v>
       </c>
@@ -23646,7 +23646,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="295" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>301</v>
       </c>
@@ -23718,7 +23718,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="296" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>465</v>
       </c>
@@ -23790,7 +23790,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="297" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>172</v>
       </c>
@@ -23862,7 +23862,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="298" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>235</v>
       </c>
@@ -23934,7 +23934,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="299" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>28</v>
       </c>
@@ -24006,7 +24006,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="300" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>485</v>
       </c>
@@ -24078,7 +24078,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="301" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>381</v>
       </c>
@@ -24150,7 +24150,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="302" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>468</v>
       </c>
@@ -24222,7 +24222,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="303" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>156</v>
       </c>
@@ -24294,7 +24294,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="304" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>62</v>
       </c>
@@ -24366,7 +24366,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="305" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>280</v>
       </c>
@@ -24438,7 +24438,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="306" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>70</v>
       </c>
@@ -24513,7 +24513,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="307" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>87</v>
       </c>
@@ -24587,7 +24587,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="308" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>284</v>
       </c>
@@ -24659,7 +24659,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="309" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>263</v>
       </c>
@@ -24731,7 +24731,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="310" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>456</v>
       </c>
@@ -24803,7 +24803,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="311" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>466</v>
       </c>
@@ -24875,7 +24875,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="312" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>332</v>
       </c>
@@ -24947,7 +24947,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="313" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>322</v>
       </c>
@@ -25019,7 +25019,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="314" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>498</v>
       </c>
@@ -25091,7 +25091,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="315" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>519</v>
       </c>
@@ -25163,7 +25163,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="316" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>206</v>
       </c>
@@ -25237,7 +25237,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="317" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>257</v>
       </c>
@@ -25309,7 +25309,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="318" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>419</v>
       </c>
@@ -25384,7 +25384,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="319" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>402</v>
       </c>
@@ -25456,7 +25456,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="320" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>55</v>
       </c>
@@ -25530,7 +25530,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="321" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>38</v>
       </c>
@@ -25602,7 +25602,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="322" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>459</v>
       </c>
@@ -25674,7 +25674,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="323" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>37</v>
       </c>
@@ -25746,7 +25746,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="324" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>214</v>
       </c>
@@ -25818,7 +25818,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="325" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>444</v>
       </c>
@@ -25890,7 +25890,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="326" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>259</v>
       </c>
@@ -25962,7 +25962,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="327" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>138</v>
       </c>
@@ -26034,7 +26034,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="328" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>517</v>
       </c>
@@ -26106,7 +26106,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="329" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>503</v>
       </c>
@@ -26178,7 +26178,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="330" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>356</v>
       </c>
@@ -26252,7 +26252,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="331" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>319</v>
       </c>
@@ -26324,7 +26324,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="332" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>265</v>
       </c>
@@ -26396,7 +26396,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="333" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>45</v>
       </c>
@@ -26468,7 +26468,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="334" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>491</v>
       </c>
@@ -26540,7 +26540,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="335" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>382</v>
       </c>
@@ -26612,7 +26612,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="336" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>414</v>
       </c>
@@ -26684,7 +26684,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="337" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>48</v>
       </c>
@@ -26756,7 +26756,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="338" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>197</v>
       </c>
@@ -26828,7 +26828,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="339" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>345</v>
       </c>
@@ -26900,7 +26900,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="340" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>196</v>
       </c>
@@ -26972,7 +26972,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="341" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>32</v>
       </c>
@@ -27044,7 +27044,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="342" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>94</v>
       </c>
@@ -27116,7 +27116,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="343" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>278</v>
       </c>
@@ -27190,7 +27190,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="344" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>341</v>
       </c>
@@ -27264,7 +27264,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="345" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>364</v>
       </c>
@@ -27336,7 +27336,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="346" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>234</v>
       </c>
@@ -27408,7 +27408,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="347" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>312</v>
       </c>
@@ -27483,7 +27483,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="348" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>303</v>
       </c>
@@ -27555,7 +27555,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="349" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>387</v>
       </c>
@@ -27627,7 +27627,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="350" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>372</v>
       </c>
@@ -27701,7 +27701,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="351" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>256</v>
       </c>
@@ -27776,7 +27776,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="352" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>107</v>
       </c>
@@ -27853,7 +27853,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="353" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>394</v>
       </c>
@@ -27925,7 +27925,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="354" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>208</v>
       </c>
@@ -27997,7 +27997,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="355" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>344</v>
       </c>
@@ -28069,7 +28069,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="356" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>44</v>
       </c>
@@ -28141,7 +28141,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="357" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>418</v>
       </c>
@@ -28213,7 +28213,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="358" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>407</v>
       </c>
@@ -28285,7 +28285,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="359" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>51</v>
       </c>
@@ -28357,7 +28357,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="360" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>112</v>
       </c>
@@ -28429,7 +28429,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="361" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>480</v>
       </c>
@@ -28501,7 +28501,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="362" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>61</v>
       </c>
@@ -28573,7 +28573,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="363" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>306</v>
       </c>
@@ -28645,7 +28645,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="364" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>453</v>
       </c>
@@ -28717,7 +28717,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="365" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>482</v>
       </c>
@@ -28789,7 +28789,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="366" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>130</v>
       </c>
@@ -28861,7 +28861,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="367" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>326</v>
       </c>
@@ -28933,7 +28933,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="368" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>114</v>
       </c>
@@ -29007,7 +29007,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="369" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>12</v>
       </c>
@@ -29081,7 +29081,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="370" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>277</v>
       </c>
@@ -29153,7 +29153,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="371" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>232</v>
       </c>
@@ -29225,7 +29225,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="372" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>205</v>
       </c>
@@ -29297,7 +29297,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="373" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>377</v>
       </c>
@@ -29369,7 +29369,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="374" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A374">
         <v>525</v>
       </c>
@@ -29441,7 +29441,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="375" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>413</v>
       </c>
@@ -29513,7 +29513,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="376" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>496</v>
       </c>
@@ -29585,7 +29585,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="377" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>75</v>
       </c>
@@ -29659,7 +29659,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="378" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>236</v>
       </c>
@@ -29731,7 +29731,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="379" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>275</v>
       </c>
@@ -29805,7 +29805,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="380" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>518</v>
       </c>
@@ -29877,7 +29877,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="381" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A381">
         <v>483</v>
       </c>
@@ -29949,7 +29949,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="382" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A382">
         <v>139</v>
       </c>
@@ -30021,7 +30021,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="383" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A383">
         <v>463</v>
       </c>
@@ -30093,7 +30093,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="384" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A384">
         <v>378</v>
       </c>
@@ -30167,7 +30167,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="385" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A385">
         <v>222</v>
       </c>
@@ -30239,7 +30239,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="386" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A386">
         <v>54</v>
       </c>
@@ -30311,7 +30311,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="387" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A387">
         <v>216</v>
       </c>
@@ -30383,7 +30383,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="388" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A388">
         <v>184</v>
       </c>
@@ -30455,7 +30455,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="389" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A389">
         <v>367</v>
       </c>
@@ -30527,7 +30527,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="390" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A390">
         <v>242</v>
       </c>
@@ -30599,7 +30599,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="391" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A391">
         <v>441</v>
       </c>
@@ -30671,7 +30671,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="392" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A392">
         <v>505</v>
       </c>
@@ -30743,7 +30743,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="393" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A393">
         <v>121</v>
       </c>
@@ -30815,7 +30815,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="394" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A394">
         <v>318</v>
       </c>
@@ -30887,7 +30887,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="395" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A395">
         <v>177</v>
       </c>
@@ -30959,7 +30959,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="396" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A396">
         <v>199</v>
       </c>
@@ -31031,7 +31031,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="397" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A397">
         <v>129</v>
       </c>
@@ -31103,7 +31103,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="398" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A398">
         <v>359</v>
       </c>
@@ -31175,7 +31175,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="399" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A399">
         <v>17</v>
       </c>
@@ -31247,7 +31247,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="400" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A400">
         <v>221</v>
       </c>
@@ -31319,7 +31319,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="401" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A401">
         <v>484</v>
       </c>
@@ -31391,7 +31391,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="402" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A402">
         <v>239</v>
       </c>
@@ -31463,7 +31463,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="403" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A403">
         <v>20</v>
       </c>
@@ -31537,7 +31537,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="404" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A404">
         <v>428</v>
       </c>
@@ -31609,7 +31609,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="405" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A405">
         <v>353</v>
       </c>
@@ -31681,7 +31681,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="406" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A406">
         <v>490</v>
       </c>
@@ -31753,7 +31753,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="407" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A407">
         <v>379</v>
       </c>
@@ -31825,7 +31825,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="408" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A408">
         <v>253</v>
       </c>
@@ -31899,7 +31899,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="409" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A409">
         <v>493</v>
       </c>
@@ -31973,7 +31973,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="410" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A410">
         <v>115</v>
       </c>
@@ -32047,7 +32047,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="411" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A411">
         <v>66</v>
       </c>
@@ -32119,7 +32119,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="412" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A412">
         <v>248</v>
       </c>
@@ -32191,7 +32191,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="413" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A413">
         <v>430</v>
       </c>
@@ -32263,7 +32263,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="414" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A414">
         <v>357</v>
       </c>
@@ -32335,7 +32335,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="415" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A415">
         <v>189</v>
       </c>
@@ -32407,7 +32407,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="416" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A416">
         <v>283</v>
       </c>
@@ -32479,7 +32479,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="417" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A417">
         <v>93</v>
       </c>
@@ -32551,7 +32551,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="418" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A418">
         <v>458</v>
       </c>
@@ -32623,7 +32623,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="419" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A419">
         <v>421</v>
       </c>
@@ -32695,7 +32695,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="420" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A420">
         <v>323</v>
       </c>
@@ -32767,7 +32767,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="421" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A421">
         <v>82</v>
       </c>
@@ -32841,7 +32841,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="422" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A422">
         <v>99</v>
       </c>
@@ -32913,7 +32913,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="423" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A423">
         <v>429</v>
       </c>
@@ -32985,7 +32985,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="424" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A424">
         <v>340</v>
       </c>
@@ -33057,7 +33057,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="425" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A425">
         <v>57</v>
       </c>
@@ -33129,7 +33129,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="426" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A426">
         <v>186</v>
       </c>
@@ -33201,7 +33201,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="427" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A427">
         <v>534</v>
       </c>
@@ -33273,7 +33273,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="428" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A428">
         <v>478</v>
       </c>
@@ -33345,7 +33345,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="429" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A429">
         <v>230</v>
       </c>
@@ -33417,7 +33417,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="430" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A430">
         <v>157</v>
       </c>
@@ -33489,7 +33489,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="431" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A431">
         <v>336</v>
       </c>
@@ -33561,7 +33561,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="432" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A432">
         <v>335</v>
       </c>
@@ -33633,7 +33633,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="433" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A433">
         <v>539</v>
       </c>
@@ -33707,7 +33707,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="434" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A434">
         <v>267</v>
       </c>
@@ -33779,7 +33779,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="435" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A435">
         <v>143</v>
       </c>
@@ -33851,7 +33851,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="436" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A436">
         <v>397</v>
       </c>
@@ -33925,7 +33925,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="437" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A437">
         <v>131</v>
       </c>
@@ -33997,7 +33997,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="438" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A438">
         <v>476</v>
       </c>
@@ -34069,7 +34069,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="439" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A439">
         <v>302</v>
       </c>
@@ -34141,7 +34141,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="440" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A440">
         <v>373</v>
       </c>
@@ -34213,7 +34213,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="441" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A441">
         <v>105</v>
       </c>
@@ -34285,7 +34285,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="442" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A442">
         <v>89</v>
       </c>
@@ -34357,7 +34357,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="443" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A443">
         <v>49</v>
       </c>
@@ -34432,7 +34432,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="444" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A444">
         <v>103</v>
       </c>
@@ -34504,7 +34504,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="445" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A445">
         <v>250</v>
       </c>
@@ -34576,7 +34576,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="446" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A446">
         <v>85</v>
       </c>
@@ -34648,7 +34648,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="447" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A447">
         <v>47</v>
       </c>
@@ -34723,7 +34723,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="448" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A448">
         <v>339</v>
       </c>
@@ -34795,7 +34795,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="449" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A449">
         <v>451</v>
       </c>
@@ -34867,7 +34867,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="450" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A450">
         <v>191</v>
       </c>
@@ -34939,7 +34939,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="451" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A451">
         <v>227</v>
       </c>
@@ -35011,7 +35011,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="452" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A452">
         <v>268</v>
       </c>
@@ -35085,7 +35085,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="453" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A453">
         <v>511</v>
       </c>
@@ -35157,7 +35157,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="454" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A454">
         <v>395</v>
       </c>
@@ -35229,7 +35229,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="455" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A455">
         <v>399</v>
       </c>
@@ -35301,7 +35301,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="456" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A456">
         <v>488</v>
       </c>
@@ -35373,7 +35373,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="457" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A457">
         <v>137</v>
       </c>
@@ -35445,7 +35445,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="458" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A458">
         <v>348</v>
       </c>
@@ -35517,7 +35517,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="459" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A459">
         <v>386</v>
       </c>
@@ -35589,7 +35589,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="460" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A460">
         <v>122</v>
       </c>
@@ -35661,7 +35661,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="461" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A461">
         <v>211</v>
       </c>
@@ -35733,7 +35733,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="462" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A462">
         <v>346</v>
       </c>
@@ -35805,7 +35805,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="463" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A463">
         <v>477</v>
       </c>
@@ -35877,7 +35877,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="464" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A464">
         <v>31</v>
       </c>
@@ -35949,7 +35949,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="465" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A465">
         <v>155</v>
       </c>
@@ -36021,7 +36021,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="466" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A466">
         <v>507</v>
       </c>
@@ -36093,7 +36093,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="467" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A467">
         <v>173</v>
       </c>
@@ -36165,7 +36165,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="468" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A468">
         <v>492</v>
       </c>
@@ -36237,7 +36237,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="469" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A469">
         <v>123</v>
       </c>
@@ -36312,7 +36312,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="470" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A470">
         <v>181</v>
       </c>
@@ -36384,7 +36384,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="471" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A471">
         <v>204</v>
       </c>
@@ -36456,7 +36456,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="472" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A472">
         <v>426</v>
       </c>
@@ -36528,7 +36528,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="473" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A473">
         <v>39</v>
       </c>
@@ -36600,7 +36600,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="474" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A474">
         <v>161</v>
       </c>
@@ -36672,7 +36672,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="475" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A475">
         <v>522</v>
       </c>
@@ -36744,7 +36744,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="476" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A476">
         <v>36</v>
       </c>
@@ -36816,7 +36816,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="477" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A477">
         <v>101</v>
       </c>
@@ -36888,7 +36888,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="478" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A478">
         <v>16</v>
       </c>
@@ -36960,7 +36960,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="479" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A479">
         <v>473</v>
       </c>
@@ -37032,7 +37032,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="480" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A480">
         <v>104</v>
       </c>
@@ -37106,7 +37106,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="481" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A481">
         <v>461</v>
       </c>
@@ -37178,7 +37178,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="482" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A482">
         <v>439</v>
       </c>
@@ -37250,7 +37250,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="483" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A483">
         <v>34</v>
       </c>
@@ -37322,7 +37322,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="484" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A484">
         <v>385</v>
       </c>
@@ -37394,7 +37394,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="485" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A485">
         <v>366</v>
       </c>
@@ -37466,7 +37466,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="486" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A486">
         <v>464</v>
       </c>
@@ -37538,7 +37538,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="487" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A487">
         <v>178</v>
       </c>
@@ -37611,7 +37611,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="488" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A488">
         <v>528</v>
       </c>
@@ -37683,7 +37683,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="489" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A489">
         <v>272</v>
       </c>
@@ -37755,7 +37755,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="490" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A490">
         <v>514</v>
       </c>
@@ -37827,7 +37827,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="491" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A491">
         <v>163</v>
       </c>
@@ -37899,7 +37899,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="492" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A492">
         <v>411</v>
       </c>
@@ -37974,7 +37974,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="493" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A493">
         <v>309</v>
       </c>
@@ -38046,7 +38046,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="494" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A494">
         <v>501</v>
       </c>
@@ -38120,7 +38120,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="495" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A495">
         <v>432</v>
       </c>
